--- a/Software/MyFlight/src/application/Versionskontrolle.xlsx
+++ b/Software/MyFlight/src/application/Versionskontrolle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Versionskontrolle</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Auftragsstatus ändern - Aufruf via Button aufgenommen</t>
+  </si>
+  <si>
+    <t>Use Case Angebot übersicht mit echter MYSQL-Anbindung und Fehlerroutinen-Behandlung</t>
+  </si>
+  <si>
+    <t>V1.03</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -528,12 +534,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42501</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>

--- a/Software/MyFlight/src/application/Versionskontrolle.xlsx
+++ b/Software/MyFlight/src/application/Versionskontrolle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Versionskontrolle</t>
   </si>
@@ -61,6 +61,22 @@
   </si>
   <si>
     <t>V1.03</t>
+  </si>
+  <si>
+    <t>Maskentitel setzbar und für Übersicht Angebote gesetzt</t>
+  </si>
+  <si>
+    <t>V1.04</t>
+  </si>
+  <si>
+    <t>Berechtigungsstufen 1, 2, 3 eingeführt:
+1 = Mitarbeiter
+2 = Führungskraft
+3 = Administrator
+ohne Login: keine Anwendungsfunktionen nutzbar
+1 = kann Anwendungsfunktionen der Berechtigungsstufe 1 nutzen
+2 = wie 1; + Anwendungsfunktion "Zusatzkosten erfassen"
+3 = wie 2; + Administration nutzbar</t>
   </si>
 </sst>
 </file>
@@ -429,7 +445,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -549,19 +565,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42502</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>42502</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>

--- a/Software/MyFlight/src/application/Versionskontrolle.xlsx
+++ b/Software/MyFlight/src/application/Versionskontrolle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Versionskontrolle</t>
   </si>
@@ -77,6 +77,21 @@
 1 = kann Anwendungsfunktionen der Berechtigungsstufe 1 nutzen
 2 = wie 1; + Anwendungsfunktion "Zusatzkosten erfassen"
 3 = wie 2; + Administration nutzbar</t>
+  </si>
+  <si>
+    <t>Buttons werden erst aktiv wenn eine Tabellenzeile ausgewählt ist</t>
+  </si>
+  <si>
+    <t>V1.05</t>
+  </si>
+  <si>
+    <t>Use Case Auftrag erstellen aufgenommen</t>
+  </si>
+  <si>
+    <t>DialogBoxen bei Auftrag erstellen für Auswahl Dokumentenentyp und weitere Aktionen aufgenommen</t>
+  </si>
+  <si>
+    <t>Use Case Übersicht Rechnungen aufgenommen</t>
   </si>
 </sst>
 </file>
@@ -444,13 +459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+    <col min="2" max="2" width="42.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -580,7 +595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
@@ -595,33 +610,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42506</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42506</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42506</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42506</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>

--- a/Software/MyFlight/src/application/Versionskontrolle.xlsx
+++ b/Software/MyFlight/src/application/Versionskontrolle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Versionskontrolle</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Use Case Übersicht Rechnungen aufgenommen</t>
+  </si>
+  <si>
+    <t>Use Case Rechnungsstatus ändern aufgenommen</t>
+  </si>
+  <si>
+    <t>V1.06</t>
+  </si>
+  <si>
+    <t>ScrollPane aufgenommen für Formulare mit vielen Feldern</t>
   </si>
 </sst>
 </file>
@@ -460,7 +469,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -490,7 +499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -520,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -535,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -565,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
@@ -672,17 +681,33 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>42506</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>42506</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>

--- a/Software/MyFlight/src/application/Versionskontrolle.xlsx
+++ b/Software/MyFlight/src/application/Versionskontrolle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Versionskontrolle</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>ScrollPane aufgenommen für Formulare mit vielen Feldern</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung in main.java für ComboBox</t>
+  </si>
+  <si>
+    <t>V1.07</t>
+  </si>
+  <si>
+    <t>Erzeugung Word und PDF - Dokument</t>
+  </si>
+  <si>
+    <t>V1.08</t>
+  </si>
+  <si>
+    <t>Ausdruck PDF-Dokument ansteuerbar, Word noch nicht</t>
+  </si>
+  <si>
+    <t>versenden von Mails ansteuerbar</t>
   </si>
 </sst>
 </file>
@@ -468,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -711,31 +729,63 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42508</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42518</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42520</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>42520</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>

--- a/Software/MyFlight/src/application/Versionskontrolle.xlsx
+++ b/Software/MyFlight/src/application/Versionskontrolle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Versionskontrolle</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>versenden von Mails ansteuerbar</t>
+  </si>
+  <si>
+    <t>Word-Doku ist ausdruckbar</t>
+  </si>
+  <si>
+    <t>V1.13</t>
+  </si>
+  <si>
+    <t>Use Case Zahlungseingänge verfolgen, Zahlungseingang bearbeiten, Zahlungserinnerungen, Zusatzkosten bearbeiten</t>
   </si>
 </sst>
 </file>
@@ -487,7 +496,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -789,17 +798,33 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>42528</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>42529</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
